--- a/Bases finales/BASE_DESCRIPTIVA.xlsx
+++ b/Bases finales/BASE_DESCRIPTIVA.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jaquelinmorillo/Documents/GitHub/EcoPolLast/Bases finales/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2153C08-8FA5-8B40-A143-EB4BBA0BFE78}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43B1CA08-1EFB-0841-B068-1C1A27008E58}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4060" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{4CF136E5-4151-994F-B2AF-DDD465BFF8CE}"/>
+    <workbookView xWindow="1160" yWindow="500" windowWidth="27640" windowHeight="16440" xr2:uid="{4CF136E5-4151-994F-B2AF-DDD465BFF8CE}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -772,10 +772,10 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1092,8 +1092,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C88C015B-63E6-8B4E-AD09-F63601688439}">
   <dimension ref="A1:H164"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="150" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2:C14"/>
+    <sheetView tabSelected="1" topLeftCell="A50" zoomScale="150" workbookViewId="0">
+      <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -2171,28 +2171,28 @@
       </c>
     </row>
     <row r="42" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A42" s="4">
+      <c r="A42" s="3">
         <v>92</v>
       </c>
-      <c r="B42" s="4" t="s">
+      <c r="B42" s="3" t="s">
         <v>188</v>
       </c>
-      <c r="C42" s="4">
+      <c r="C42" s="3">
         <v>2</v>
       </c>
-      <c r="D42" s="4" t="s">
+      <c r="D42" s="3" t="s">
         <v>174</v>
       </c>
-      <c r="E42" s="4">
-        <v>0</v>
-      </c>
-      <c r="F42" s="4">
-        <v>1</v>
-      </c>
-      <c r="G42" s="4">
-        <v>1</v>
-      </c>
-      <c r="H42" s="4">
+      <c r="E42" s="3">
+        <v>0</v>
+      </c>
+      <c r="F42" s="3">
+        <v>1</v>
+      </c>
+      <c r="G42" s="3">
+        <v>1</v>
+      </c>
+      <c r="H42" s="3">
         <v>1</v>
       </c>
     </row>
@@ -2441,7 +2441,7 @@
         <v>8</v>
       </c>
       <c r="D52" s="1" t="s">
-        <v>193</v>
+        <v>180</v>
       </c>
       <c r="E52" s="1">
         <v>0</v>
@@ -2665,28 +2665,28 @@
       </c>
     </row>
     <row r="61" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A61" s="4">
+      <c r="A61" s="3">
         <v>124</v>
       </c>
-      <c r="B61" s="4" t="s">
+      <c r="B61" s="3" t="s">
         <v>184</v>
       </c>
-      <c r="C61" s="4">
+      <c r="C61" s="3">
         <v>19</v>
       </c>
-      <c r="D61" s="4" t="s">
+      <c r="D61" s="3" t="s">
         <v>159</v>
       </c>
-      <c r="E61" s="4">
-        <v>0</v>
-      </c>
-      <c r="F61" s="4">
-        <v>1</v>
-      </c>
-      <c r="G61" s="4">
+      <c r="E61" s="3">
+        <v>0</v>
+      </c>
+      <c r="F61" s="3">
+        <v>1</v>
+      </c>
+      <c r="G61" s="3">
         <v>16</v>
       </c>
-      <c r="H61" s="4">
+      <c r="H61" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3549,28 +3549,28 @@
       </c>
     </row>
     <row r="95" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A95" s="4">
+      <c r="A95" s="3">
         <v>130</v>
       </c>
-      <c r="B95" s="4" t="s">
+      <c r="B95" s="3" t="s">
         <v>185</v>
       </c>
-      <c r="C95" s="4">
+      <c r="C95" s="3">
         <v>14</v>
       </c>
-      <c r="D95" s="4" t="s">
+      <c r="D95" s="3" t="s">
         <v>180</v>
       </c>
-      <c r="E95" s="4">
-        <v>0</v>
-      </c>
-      <c r="F95" s="4">
-        <v>1</v>
-      </c>
-      <c r="G95" s="4">
-        <v>13</v>
-      </c>
-      <c r="H95" s="4">
+      <c r="E95" s="3">
+        <v>0</v>
+      </c>
+      <c r="F95" s="3">
+        <v>1</v>
+      </c>
+      <c r="G95" s="3">
+        <v>13</v>
+      </c>
+      <c r="H95" s="3">
         <v>0</v>
       </c>
     </row>
@@ -3887,28 +3887,28 @@
       </c>
     </row>
     <row r="108" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A108" s="4">
+      <c r="A108" s="3">
         <v>45</v>
       </c>
-      <c r="B108" s="4" t="s">
+      <c r="B108" s="3" t="s">
         <v>186</v>
       </c>
-      <c r="C108" s="4">
+      <c r="C108" s="3">
         <v>10</v>
       </c>
-      <c r="D108" s="4" t="s">
+      <c r="D108" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E108" s="4">
-        <v>1</v>
-      </c>
-      <c r="F108" s="4">
-        <v>0</v>
-      </c>
-      <c r="G108" s="4">
-        <v>13</v>
-      </c>
-      <c r="H108" s="4">
+      <c r="E108" s="3">
+        <v>1</v>
+      </c>
+      <c r="F108" s="3">
+        <v>0</v>
+      </c>
+      <c r="G108" s="3">
+        <v>13</v>
+      </c>
+      <c r="H108" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4147,28 +4147,28 @@
       </c>
     </row>
     <row r="118" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A118" s="4">
+      <c r="A118" s="3">
         <v>94</v>
       </c>
-      <c r="B118" s="4" t="s">
+      <c r="B118" s="3" t="s">
         <v>189</v>
       </c>
-      <c r="C118" s="4">
+      <c r="C118" s="3">
         <v>8</v>
       </c>
-      <c r="D118" s="4" t="s">
+      <c r="D118" s="3" t="s">
         <v>176</v>
       </c>
-      <c r="E118" s="4">
-        <v>1</v>
-      </c>
-      <c r="F118" s="4">
-        <v>0</v>
-      </c>
-      <c r="G118" s="4">
-        <v>13</v>
-      </c>
-      <c r="H118" s="4">
+      <c r="E118" s="3">
+        <v>1</v>
+      </c>
+      <c r="F118" s="3">
+        <v>0</v>
+      </c>
+      <c r="G118" s="3">
+        <v>13</v>
+      </c>
+      <c r="H118" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4745,28 +4745,28 @@
       </c>
     </row>
     <row r="141" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A141" s="4">
+      <c r="A141" s="3">
         <v>34</v>
       </c>
-      <c r="B141" s="4" t="s">
+      <c r="B141" s="3" t="s">
         <v>182</v>
       </c>
-      <c r="C141" s="4">
+      <c r="C141" s="3">
         <v>14</v>
       </c>
-      <c r="D141" s="4" t="s">
+      <c r="D141" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E141" s="4">
-        <v>1</v>
-      </c>
-      <c r="F141" s="4">
-        <v>0</v>
-      </c>
-      <c r="G141" s="4">
-        <v>13</v>
-      </c>
-      <c r="H141" s="4">
+      <c r="E141" s="3">
+        <v>1</v>
+      </c>
+      <c r="F141" s="3">
+        <v>0</v>
+      </c>
+      <c r="G141" s="3">
+        <v>13</v>
+      </c>
+      <c r="H141" s="3">
         <v>0</v>
       </c>
     </row>
@@ -4901,28 +4901,28 @@
       </c>
     </row>
     <row r="147" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A147" s="4">
+      <c r="A147" s="3">
         <v>72</v>
       </c>
-      <c r="B147" s="4" t="s">
+      <c r="B147" s="3" t="s">
         <v>187</v>
       </c>
-      <c r="C147" s="4">
+      <c r="C147" s="3">
         <v>8</v>
       </c>
-      <c r="D147" s="4" t="s">
+      <c r="D147" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E147" s="4">
-        <v>1</v>
-      </c>
-      <c r="F147" s="4">
-        <v>0</v>
-      </c>
-      <c r="G147" s="4">
-        <v>13</v>
-      </c>
-      <c r="H147" s="4">
+      <c r="E147" s="3">
+        <v>1</v>
+      </c>
+      <c r="F147" s="3">
+        <v>0</v>
+      </c>
+      <c r="G147" s="3">
+        <v>13</v>
+      </c>
+      <c r="H147" s="3">
         <v>1</v>
       </c>
     </row>
@@ -4979,28 +4979,28 @@
       </c>
     </row>
     <row r="150" spans="1:8" x14ac:dyDescent="0.2">
-      <c r="A150" s="4">
+      <c r="A150" s="3">
         <v>82</v>
       </c>
-      <c r="B150" s="4" t="s">
+      <c r="B150" s="3" t="s">
         <v>183</v>
       </c>
-      <c r="C150" s="4">
+      <c r="C150" s="3">
         <v>15</v>
       </c>
-      <c r="D150" s="4" t="s">
+      <c r="D150" s="3" t="s">
         <v>163</v>
       </c>
-      <c r="E150" s="4">
-        <v>1</v>
-      </c>
-      <c r="F150" s="4">
-        <v>0</v>
-      </c>
-      <c r="G150" s="4">
+      <c r="E150" s="3">
+        <v>1</v>
+      </c>
+      <c r="F150" s="3">
+        <v>0</v>
+      </c>
+      <c r="G150" s="3">
         <v>6</v>
       </c>
-      <c r="H150" s="4">
+      <c r="H150" s="3">
         <v>1</v>
       </c>
     </row>
@@ -5393,10 +5393,10 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A1" s="3" t="s">
+      <c r="A1" s="4" t="s">
         <v>155</v>
       </c>
-      <c r="B1" s="3"/>
+      <c r="B1" s="4"/>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
@@ -5519,10 +5519,10 @@
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="4" t="s">
         <v>209</v>
       </c>
-      <c r="B17" s="3"/>
+      <c r="B17" s="4"/>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
@@ -5653,10 +5653,10 @@
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.2">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="4" t="s">
         <v>208</v>
       </c>
-      <c r="B34" s="3"/>
+      <c r="B34" s="4"/>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
